--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value881.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value881.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.253265605272369</v>
+        <v>3.329283714294434</v>
       </c>
       <c r="B1">
-        <v>2.482805372544635</v>
+        <v>2.473553657531738</v>
       </c>
       <c r="C1">
-        <v>3.32903398351504</v>
+        <v>2.056790590286255</v>
       </c>
       <c r="D1">
-        <v>3.305294174400351</v>
+        <v>1.948425531387329</v>
       </c>
       <c r="E1">
-        <v>1.103546065110919</v>
+        <v>1.714047193527222</v>
       </c>
     </row>
   </sheetData>
